--- a/data/trans_dic/CONS_CAT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_CAT-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>3,16%</t>
         </is>
       </c>
     </row>
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 12,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,18</t>
+          <t>2,09; 7,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 4,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,99; 16,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 7,03</t>
+          <t>0,94; 4,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 2,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 10,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,89</t>
+          <t>2,0; 5,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,86%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 3,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,9; 22,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,35</t>
+          <t>1,96; 6,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 2,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,72; 10,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,61</t>
+          <t>2,22; 6,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 2,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,09; 13,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,88</t>
+          <t>2,63; 5,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>3,14%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,33; 2,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,32; 11,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 4,43</t>
+          <t>1,38; 5,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>1,46; 4,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,85; 9,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,77</t>
+          <t>2,01; 6,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>1,12; 2,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,56; 9,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,92</t>
+          <t>1,96; 4,8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,21</t>
+          <t>0,43; 1,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 9,07</t>
+          <t>1,21; 7,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,57</t>
+          <t>1,14; 3,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,03</t>
+          <t>1,01; 3,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 13,98</t>
+          <t>4,77; 8,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,23</t>
+          <t>2,08; 5,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,04</t>
+          <t>0,86; 2,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 9,61</t>
+          <t>2,26; 7,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,97</t>
+          <t>1,92; 4,13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,69</t>
+          <t>2,82; 6,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,32; 15,56</t>
+          <t>4,44; 9,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,25</t>
+          <t>0,52; 3,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,08</t>
+          <t>1,92; 4,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 10,66</t>
+          <t>8,28; 13,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,62</t>
+          <t>0,88; 3,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,52</t>
+          <t>2,6; 4,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 11,93</t>
+          <t>7,0; 10,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,14</t>
+          <t>1,0; 2,69</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,93%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,85</t>
+          <t>1,43; 3,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,89</t>
+          <t>5,9; 12,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,84</t>
+          <t>2,09; 5,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,63</t>
+          <t>2,39; 5,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,27; 8,71</t>
+          <t>1,8; 10,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,94</t>
+          <t>1,23; 3,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,73</t>
+          <t>2,22; 4,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,71; 8,68</t>
+          <t>2,62; 9,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,45</t>
+          <t>1,99; 4,16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,02</t>
+          <t>1,07; 3,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,35</t>
+          <t>2,95; 8,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,13</t>
+          <t>2,71; 6,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,37</t>
+          <t>1,71; 3,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,15; 8,14</t>
+          <t>7,38; 13,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,38</t>
+          <t>1,19; 3,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,21</t>
+          <t>1,68; 3,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,21; 7,82</t>
+          <t>6,03; 10,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,38</t>
+          <t>2,06; 4,28</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,24</t>
+          <t>1,51; 2,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,01; 7,97</t>
+          <t>4,5; 8,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,58</t>
+          <t>2,35; 3,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,91</t>
+          <t>2,11; 3,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,26; 11,19</t>
+          <t>5,33; 8,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,46</t>
+          <t>2,25; 3,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,93</t>
+          <t>1,91; 2,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,89</t>
+          <t>5,57; 8,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,45; 4,0</t>
+          <t>2,45; 3,39</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>3,39%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>8,14%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,28%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>6,35%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>3,03%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>7,09%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 5,46</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>5,99; 10,45</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 3,5</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 4,25</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>3,02; 8,7</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>2,47; 5,39</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>2,01; 4,21</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 8,73</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>2,33; 4,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>4,3%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2,5%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>2,35%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>8,81%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>2,67%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>3,27%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>7,68%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 6,26</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>3,87; 8,22</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 3,9</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 3,77</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>7,03; 11,19</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 3,8</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 4,46</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>6,39; 9,27</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>1,95; 3,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,13%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>6,9%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,08%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,86%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>7,52%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,44%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,99%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>7,23%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,52; 3,89</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>6,01; 7,96</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 2,53</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 3,53</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>6,66; 8,35</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>2,05; 2,89</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 3,48</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>6,57; 7,94</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 2,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el catarro</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9952</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6834</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1261</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16007</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25959</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10758</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1216</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2793; 29739</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3550; 13146</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>473; 2806</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7364; 30274</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1604; 8039</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>790; 3414</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12706; 45593</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6815; 17970</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1088</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>34005</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6636</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19580</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8559</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>53586</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15195</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>463; 2214</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20422; 51020</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3580; 11971</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>265; 1683</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8567; 31863</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4695; 13728</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>961; 3081</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>33095; 73860</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10352; 22860</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>863</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24650</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6684</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2572</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21854</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8921</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46505</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>15606</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>309; 1910</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16518; 36189</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3421; 12811</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1421; 4320</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15598; 30474</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5000; 16423</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2148; 5219</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35175; 59465</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9725; 23870</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25339</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6631</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2491</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>26528</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9696</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3753</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>51867</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>16327</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>595; 2586</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7592; 48233</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3396; 11757</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1395; 4226</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>19302; 34411</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5804; 16321</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2393; 5721</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>23327; 72878</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11048; 23790</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5307</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>23487</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3410</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4162</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>34088</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9469</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>57575</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8070</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3584; 8062</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15070; 33216</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1228; 7378</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2827; 6050</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>26394; 43205</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2245; 8663</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7136; 12598</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>46046; 71779</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4866; 13152</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2563</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17875</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6634</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>24364</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6888</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>42240</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10930</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1538; 4199</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>12271; 25890</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3842; 10576</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2748; 6558</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8154; 47827</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2327; 7201</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4930; 9431</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17294; 64530</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>7400; 15517</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8071</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>6490</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>22645</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5447</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>30716</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>11089</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1034; 3389</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4474; 13205</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3966; 9946</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2290; 5184</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>17206; 30854</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2525; 7957</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3864; 7586</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>23236; 38690</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>7393; 15350</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>13390</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>143380</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>43318</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>19100</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>165067</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>44656</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>32490</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>308446</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>87974</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>10537; 16776</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>94529; 176059</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>34358; 53592</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>15959; 23117</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>118924; 194912</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>35199; 56065</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>27748; 37894</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>241226; 360918</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>74162; 102523</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_CAT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_CAT-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro</t>
+          <t>Consumo de medicamentos para el catarro (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro</t>
+          <t>Consumo de medicamentos para el catarro (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_CAT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_CAT-Edad-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 12,59</t>
+          <t>1,17; 12,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,49</t>
+          <t>0,4; 2,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 16,42</t>
+          <t>3,78; 15,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,72</t>
+          <t>0,38; 1,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 10,84</t>
+          <t>3,35; 10,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,2</t>
+          <t>0,73; 3,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,9; 22,24</t>
+          <t>9,32; 22,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,69</t>
+          <t>0,78; 4,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 10,13</t>
+          <t>2,53; 9,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,34</t>
+          <t>1,0; 3,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 13,58</t>
+          <t>5,92; 13,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,02</t>
+          <t>0,44; 2,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 11,65</t>
+          <t>5,03; 11,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,43</t>
+          <t>1,61; 4,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,47</t>
+          <t>4,69; 9,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,72</t>
+          <t>1,19; 2,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,4</t>
+          <t>5,57; 9,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,86</t>
+          <t>0,64; 2,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 7,69</t>
+          <t>1,19; 7,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,06</t>
+          <t>1,29; 3,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 8,5</t>
+          <t>4,69; 8,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,06</t>
+          <t>1,15; 2,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,06</t>
+          <t>2,61; 7,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,36</t>
+          <t>2,4; 5,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,44; 9,79</t>
+          <t>4,41; 9,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,11</t>
+          <t>2,89; 6,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,28; 13,55</t>
+          <t>8,27; 13,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,59</t>
+          <t>3,01; 5,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 10,91</t>
+          <t>7,12; 10,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,9</t>
+          <t>1,62; 4,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,9; 12,44</t>
+          <t>5,87; 12,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,71</t>
+          <t>2,51; 5,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 10,57</t>
+          <t>1,61; 10,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,24</t>
+          <t>2,38; 4,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 9,77</t>
+          <t>2,13; 10,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,52</t>
+          <t>1,61; 5,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 8,7</t>
+          <t>3,01; 9,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,87</t>
+          <t>2,4; 5,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,38; 13,23</t>
+          <t>7,01; 12,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,29</t>
+          <t>2,47; 4,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,03; 10,05</t>
+          <t>6,17; 10,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,41</t>
+          <t>1,62; 2,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,37</t>
+          <t>4,72; 8,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,11; 3,06</t>
+          <t>2,57; 3,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,74</t>
+          <t>5,24; 8,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,91; 2,61</t>
+          <t>2,21; 2,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,57; 8,33</t>
+          <t>5,45; 8,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>768</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1263</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 1216</t>
+          <t>0; 1750</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2793; 29739</t>
+          <t>2754; 28430</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>473; 2806</t>
+          <t>267; 1622</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7364; 30274</t>
+          <t>6968; 27758</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>790; 3414</t>
+          <t>551; 2623</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12706; 45593</t>
+          <t>14099; 44516</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>463; 2214</t>
+          <t>547; 2726</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20422; 51020</t>
+          <t>21370; 50589</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>265; 1683</t>
+          <t>528; 3090</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8567; 31863</t>
+          <t>7969; 31302</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>961; 3081</t>
+          <t>1435; 4651</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33095; 73860</t>
+          <t>32213; 75504</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2572</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>309; 1910</t>
+          <t>462; 2889</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16518; 36189</t>
+          <t>15628; 36849</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1421; 4320</t>
+          <t>1778; 5190</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15598; 30474</t>
+          <t>15084; 30564</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2148; 5219</t>
+          <t>2545; 6428</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>35175; 59465</t>
+          <t>35231; 60586</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>1839</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2491</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3753</t>
+          <t>5116</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>595; 2586</t>
+          <t>933; 3769</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7592; 48233</t>
+          <t>7452; 46218</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1395; 4226</t>
+          <t>1962; 5430</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19302; 34411</t>
+          <t>18997; 33999</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2393; 5721</t>
+          <t>3415; 8068</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23327; 72878</t>
+          <t>26966; 74188</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5307</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4162</t>
+          <t>6551</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9469</t>
+          <t>11235</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3584; 8062</t>
+          <t>3116; 6923</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>15070; 33216</t>
+          <t>14962; 33112</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2827; 6050</t>
+          <t>4390; 9293</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>26394; 43205</t>
+          <t>26378; 42850</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7136; 12598</t>
+          <t>8481; 14507</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>46046; 71779</t>
+          <t>46830; 71028</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>6888</t>
+          <t>7161</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1538; 4199</t>
+          <t>1695; 4223</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12271; 25890</t>
+          <t>12221; 25183</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2748; 6558</t>
+          <t>2901; 6697</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8154; 47827</t>
+          <t>7303; 48008</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4930; 9431</t>
+          <t>5234; 9564</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17294; 64530</t>
+          <t>14105; 66907</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>2580</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3510</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5447</t>
+          <t>7269</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1034; 3389</t>
+          <t>1437; 4515</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4474; 13205</t>
+          <t>4570; 14108</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2290; 5184</t>
+          <t>3173; 7048</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>17206; 30854</t>
+          <t>16358; 29839</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3864; 7586</t>
+          <t>5482; 10095</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>23236; 38690</t>
+          <t>23761; 38963</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>13390</t>
+          <t>14814</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>19100</t>
+          <t>24155</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>32490</t>
+          <t>38969</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>10537; 16776</t>
+          <t>11743; 18672</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>94529; 176059</t>
+          <t>99212; 178214</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15959; 23117</t>
+          <t>20498; 29110</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>118924; 194912</t>
+          <t>116769; 194050</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>27748; 37894</t>
+          <t>33585; 45020</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>241226; 360918</t>
+          <t>236347; 353023</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_CAT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_CAT-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,64%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,21%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>1,16%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,68%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,3%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,88%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,17%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,8; 12,28</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 7,73</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 2,28</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 12,03</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 7,73</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>4,55; 15,61</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 4,72</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,4; 2,45</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>3,78; 15,06</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 4,72</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>4,39; 12,04</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 5,28</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,38; 1,83</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>3,35; 10,58</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 5,28</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>14,79%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,79%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>14,83%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,64%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>7,36%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4,05%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>1,93%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,23%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,05%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>10,93%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>1,86%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>9,85%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,86%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>9,52; 21,77</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 6,57</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,73; 3,63</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>9,32; 22,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 6,57</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>4,76; 11,19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 6,49</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,78; 4,54</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 9,96</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 6,49</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>7,47; 14,66</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 5,81</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>1,0; 3,25</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>5,92; 13,88</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 5,81</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,06%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,93%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,69%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>6,63%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>2,86%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,79%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,59%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1,99%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>7,35%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,14%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>5,05; 11,42</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 5,16</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,44; 2,78</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5,03; 11,86</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 5,16</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>4,73; 9,3</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 6,6</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>1,61; 4,69</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>4,69; 9,5</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,01; 6,6</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>5,58; 9,34</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 4,8</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1,19; 2,99</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>5,57; 9,58</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 4,8</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,36%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,27%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,04%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,23%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,57%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>2,15%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,55%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>1,72%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,03%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,29; 8,79</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 3,96</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,64; 2,6</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 7,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 3,96</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>4,72; 8,56</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 5,85</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1,29; 3,56</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>4,69; 8,4</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 5,85</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>5,19; 8,37</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 4,13</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>1,15; 2,71</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,61; 7,19</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,92; 4,13</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>3,61%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,93%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>4,31%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>10,69%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>8,71%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>3,99%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8,75%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>4,23; 9,46</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 3,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>2,4; 5,34</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,41; 9,76</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 3,14</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>8,2; 13,47</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 3,41</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>2,89; 6,12</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>8,27; 13,44</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 3,41</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>6,96; 10,54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 2,69</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>3,01; 5,15</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 10,79</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 2,69</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>2,65%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,59%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>3,79%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,38%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,28%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>9,37%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>3,25%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,39%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,93%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>5,73; 11,79</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 5,75</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1,62; 4,04</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,87; 12,1</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 5,75</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>7,55; 13,22</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 3,82</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>2,51; 5,78</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,61; 10,61</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 3,82</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>7,41; 11,48</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 4,16</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>2,38; 4,34</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,13; 10,13</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 4,16</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>2,89%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5,32%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,43%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>9,75%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>3,54%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>9,71%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>7,97%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>3,28%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>7,98%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,93; 9,14</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 6,79</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1,61; 5,06</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 9,3</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 6,79</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>7,08; 12,96</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 3,76</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>2,4; 5,33</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>7,01; 12,79</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 3,76</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>6,14; 10,24</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 4,28</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>2,47; 4,56</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6,17; 10,12</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 4,28</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>7,8%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>2,05%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>6,82%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,96%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>3,03%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>7,4%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>2,85%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>2,56%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>7,12%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>6,49; 9,33</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 3,66</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>1,62; 2,58</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>4,72; 8,48</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 3,66</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>7,35; 9,61</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 3,58</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>2,57; 3,65</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>5,24; 8,7</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 3,58</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>7,29; 8,97</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2,45; 3,39</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>2,21; 2,96</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>5,45; 8,15</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>2,45; 3,39</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1660,47 +1660,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>8</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>13133</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6834</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>495</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9952</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6834</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>20142</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>768</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>16007</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3924</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>33275</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10758</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>1263</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>25959</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>10758</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4351; 29625</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3550; 13146</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0; 1750</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2754; 28430</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3550; 13146</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>10003; 34282</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1604; 8039</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>267; 1622</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6968; 27758</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1604; 8039</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>20244; 55474</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6815; 17970</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>551; 2623</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>14099; 44516</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>6815; 17970</t>
         </is>
       </c>
     </row>
@@ -1823,47 +1823,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>13</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>38733</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6636</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1340</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>34005</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6636</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>20866</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8559</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1314</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>19580</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8559</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>59600</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15195</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>2655</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>53586</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>15195</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>24937; 57039</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3580; 11971</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>547; 2726</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>21370; 50589</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3580; 11971</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>13506; 31727</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4695; 13728</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>528; 3090</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>7969; 31302</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>4695; 13728</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>40724; 79957</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10352; 22860</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1435; 4651</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>32213; 75504</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>10352; 22860</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>28917</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6684</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1106</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>24650</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6684</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>24687</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8921</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3164</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>21854</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>8921</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>53603</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15606</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>4270</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>46505</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>15606</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>18585; 42071</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3421; 12811</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>462; 2889</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>15628; 36849</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3421; 12811</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>17637; 34671</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5000; 16423</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>1778; 5190</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>15084; 30564</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5000; 16423</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>41377; 69211</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9725; 23870</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>2545; 6428</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>35231; 60586</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>9725; 23870</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>26</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>26978</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6631</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1839</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>25339</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6631</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>28997</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9696</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>3277</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>26528</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9696</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>55975</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16327</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>5116</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>51867</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>16327</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>18169; 37249</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3396; 11757</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>933; 3769</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7452; 46218</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3396; 11757</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>20809; 37779</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5804; 16321</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>1962; 5430</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>18997; 33999</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5804; 16321</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>44909; 72377</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11048; 23790</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>3415; 8068</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>26966; 74188</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>11048; 23790</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>57</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>24856</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3410</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>4684</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>23487</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>3410</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>38553</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>6551</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>34088</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>63409</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8070</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>11235</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>57575</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>8070</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>15566; 34813</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1228; 7378</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>3116; 6923</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>14962; 33112</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1228; 7378</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>29546; 48530</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2245; 8663</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>4390; 9293</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>26378; 42850</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>2245; 8663</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>50728; 76765</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4866; 13152</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>8481; 14507</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>46830; 71028</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>4866; 13152</t>
         </is>
       </c>
     </row>
@@ -2475,14 +2475,14 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
           <t>19</t>
@@ -2490,32 +2490,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>45</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>19444</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6634</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>2770</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>17875</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>6634</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>27505</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>4391</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>24364</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>46949</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10930</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>7161</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>42240</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>10930</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>13241; 27272</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3842; 10576</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>1695; 4223</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>12221; 25183</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>3842; 10576</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>20374; 35696</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2327; 7201</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>2901; 6697</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>7303; 48008</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>2327; 7201</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>37154; 57569</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>7400; 15517</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>5234; 9564</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>14105; 66907</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>7400; 15517</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>42</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>8630</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>6490</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>2580</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>8071</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>6490</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>24975</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>4689</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>22645</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>4599</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>33605</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>11089</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>7269</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>30716</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>11089</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>4857; 15141</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3966; 9946</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>1437; 4515</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>4570; 14108</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3966; 9946</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>18142; 33205</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2525; 7957</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>3173; 7048</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>16358; 29839</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2525; 7957</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>25919; 43193</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>7393; 15350</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>5482; 10095</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>23761; 38963</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>7393; 15350</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>85</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>213</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>174</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>160692</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>43318</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>14814</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>143380</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>43318</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>185724</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>44656</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>24155</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>165067</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>44656</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>346416</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>87974</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>38969</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>308446</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>87974</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>133639; 192279</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>34358; 53592</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>11743; 18672</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>99212; 178214</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>34358; 53592</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>161968; 211761</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>35199; 56065</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>20498; 29110</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>116769; 194050</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>35199; 56065</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>310917; 382592</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>74162; 102523</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>33585; 45020</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>236347; 353023</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>74162; 102523</t>
         </is>
       </c>
     </row>
